--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Winner_determination/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Winner_determination/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\Winner_determination\dataset_06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77A91F-CA05-4689-9832-D9F9E73580DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_Winner_dataset_06_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>255.9446111077716</v>
+        <v>255.94461110777161</v>
       </c>
       <c r="H2">
-        <v>77.72241753312456</v>
+        <v>77.722417533124556</v>
       </c>
       <c r="I2">
-        <v>178.222193574647</v>
+        <v>178.22219357464701</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>178.222193574647</v>
+        <v>178.22219357464701</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -666,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>255.9446111077716</v>
+        <v>255.94461110777161</v>
       </c>
       <c r="P2">
-        <v>77.72241753312456</v>
+        <v>77.722417533124556</v>
       </c>
       <c r="Q2">
         <v>1.191817328508189</v>
       </c>
       <c r="R2">
-        <v>85.59126954512045</v>
+        <v>85.591269545120454</v>
       </c>
       <c r="S2">
         <v>3.293060345153191</v>
@@ -687,22 +776,22 @@
         <v>1.191817328508189</v>
       </c>
       <c r="V2">
-        <v>85.59126954512045</v>
+        <v>85.591269545120454</v>
       </c>
       <c r="W2">
-        <v>341.7864665781935</v>
+        <v>341.78646657819348</v>
       </c>
       <c r="X2">
-        <v>520.0086601528405</v>
+        <v>520.00866015284055</v>
       </c>
       <c r="Y2">
-        <v>341.7864665781935</v>
+        <v>341.78646657819348</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,19 +811,19 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>283.2195834744782</v>
+        <v>283.21958347447821</v>
       </c>
       <c r="H3">
-        <v>26.34796911198112</v>
+        <v>26.347969111981119</v>
       </c>
       <c r="I3">
-        <v>256.871614362497</v>
+        <v>256.87161436249698</v>
       </c>
       <c r="J3">
         <v>0.1</v>
       </c>
       <c r="K3">
-        <v>256.871614362497</v>
+        <v>256.87161436249698</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -746,43 +835,43 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>283.2195834744782</v>
+        <v>283.21958347447821</v>
       </c>
       <c r="P3">
-        <v>26.34796911198112</v>
+        <v>26.347969111981119</v>
       </c>
       <c r="Q3">
-        <v>2.374831311647534</v>
+        <v>2.3748313116475339</v>
       </c>
       <c r="R3">
-        <v>194.2996323170422</v>
+        <v>194.29963231704221</v>
       </c>
       <c r="S3">
-        <v>10.74919976833018</v>
+        <v>10.749199768330181</v>
       </c>
       <c r="T3">
-        <v>10.74919976833018</v>
+        <v>10.749199768330181</v>
       </c>
       <c r="U3">
-        <v>2.374831311647534</v>
+        <v>2.3748313116475339</v>
       </c>
       <c r="V3">
-        <v>194.2996323170422</v>
+        <v>194.29963231704221</v>
       </c>
       <c r="W3">
-        <v>284.05864820944</v>
+        <v>284.05864820943998</v>
       </c>
       <c r="X3">
-        <v>540.9302625719371</v>
+        <v>540.93026257193708</v>
       </c>
       <c r="Y3">
-        <v>284.05864820944</v>
+        <v>284.05864820943998</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>213.0768555064352</v>
+        <v>213.07685550643521</v>
       </c>
       <c r="H4">
-        <v>39.72198594603772</v>
+        <v>39.721985946037719</v>
       </c>
       <c r="I4">
-        <v>173.3548695603974</v>
+        <v>173.35486956039739</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>173.3548695603974</v>
+        <v>173.35486956039739</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -826,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>213.0768555064352</v>
+        <v>213.07685550643521</v>
       </c>
       <c r="P4">
-        <v>39.72198594603772</v>
+        <v>39.721985946037719</v>
       </c>
       <c r="Q4">
         <v>1.679748088033469</v>
@@ -850,19 +939,19 @@
         <v>106.6319396146482</v>
       </c>
       <c r="W4">
-        <v>321.3059069600966</v>
+        <v>321.30590696009659</v>
       </c>
       <c r="X4">
-        <v>494.660776520494</v>
+        <v>494.66077652049398</v>
       </c>
       <c r="Y4">
-        <v>321.3059069600966</v>
+        <v>321.30590696009659</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>277.646064202827</v>
+        <v>277.64606420282701</v>
       </c>
       <c r="H5">
-        <v>61.54264731875374</v>
+        <v>61.542647318753737</v>
       </c>
       <c r="I5">
-        <v>216.1034168840733</v>
+        <v>216.10341688407331</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>216.1034168840733</v>
+        <v>216.10341688407331</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -906,43 +995,43 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>277.646064202827</v>
+        <v>277.64606420282701</v>
       </c>
       <c r="P5">
-        <v>61.54264731875374</v>
+        <v>61.542647318753737</v>
       </c>
       <c r="Q5">
-        <v>1.506616765373685</v>
+        <v>1.5066167653736851</v>
       </c>
       <c r="R5">
         <v>123.382232648159</v>
       </c>
       <c r="S5">
-        <v>4.511441679861252</v>
+        <v>4.5114416798612522</v>
       </c>
       <c r="T5">
-        <v>4.511441679861252</v>
+        <v>4.5114416798612522</v>
       </c>
       <c r="U5">
-        <v>1.506616765373685</v>
+        <v>1.5066167653736851</v>
       </c>
       <c r="V5">
         <v>123.382232648159</v>
       </c>
       <c r="W5">
-        <v>256.0350155955613</v>
+        <v>256.03501559556128</v>
       </c>
       <c r="X5">
-        <v>472.1384324796346</v>
+        <v>472.13843247963462</v>
       </c>
       <c r="Y5">
-        <v>256.0350155955613</v>
+        <v>256.03501559556128</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>266.5274308381956</v>
+        <v>266.52743083819558</v>
       </c>
       <c r="H6">
-        <v>53.73058436578081</v>
+        <v>53.730584365780807</v>
       </c>
       <c r="I6">
-        <v>212.7968464724148</v>
+        <v>212.79684647241481</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
-        <v>212.7968464724148</v>
+        <v>212.79684647241481</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -986,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>266.5274308381956</v>
+        <v>266.52743083819558</v>
       </c>
       <c r="P6">
-        <v>53.73058436578081</v>
+        <v>53.730584365780807</v>
       </c>
       <c r="Q6">
         <v>1.601494787633478</v>
@@ -998,10 +1087,10 @@
         <v>126.747595674116</v>
       </c>
       <c r="S6">
-        <v>4.960441692272714</v>
+        <v>4.9604416922727141</v>
       </c>
       <c r="T6">
-        <v>4.960441692272714</v>
+        <v>4.9604416922727141</v>
       </c>
       <c r="U6">
         <v>1.601494787633478</v>
@@ -1010,19 +1099,19 @@
         <v>126.747595674116</v>
       </c>
       <c r="W6">
-        <v>347.9476961041543</v>
+        <v>347.94769610415432</v>
       </c>
       <c r="X6">
-        <v>560.7445425765691</v>
+        <v>560.74454257656907</v>
       </c>
       <c r="Y6">
-        <v>347.9476961041543</v>
+        <v>347.94769610415432</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>270.1337736281939</v>
+        <v>270.13377362819392</v>
       </c>
       <c r="H7">
-        <v>32.13297368792174</v>
+        <v>32.132973687921741</v>
       </c>
       <c r="I7">
         <v>238.0007999402722</v>
@@ -1066,43 +1155,43 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>270.1337736281939</v>
+        <v>270.13377362819392</v>
       </c>
       <c r="P7">
-        <v>32.13297368792174</v>
+        <v>32.132973687921741</v>
       </c>
       <c r="Q7">
         <v>2.129034573580681</v>
       </c>
       <c r="R7">
-        <v>169.5885880067285</v>
+        <v>169.58858800672849</v>
       </c>
       <c r="S7">
-        <v>8.406746796974248</v>
+        <v>8.4067467969742484</v>
       </c>
       <c r="T7">
-        <v>8.406746796974248</v>
+        <v>8.4067467969742484</v>
       </c>
       <c r="U7">
         <v>2.129034573580681</v>
       </c>
       <c r="V7">
-        <v>169.5885880067285</v>
+        <v>169.58858800672849</v>
       </c>
       <c r="W7">
-        <v>314.13736996347</v>
+        <v>314.13736996347001</v>
       </c>
       <c r="X7">
         <v>552.1381699037421</v>
       </c>
       <c r="Y7">
-        <v>314.13736996347</v>
+        <v>314.13736996347001</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>271.743047679215</v>
+        <v>271.74304767921501</v>
       </c>
       <c r="H8">
         <v>25.9268840776354</v>
@@ -1146,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>271.743047679215</v>
+        <v>271.74304767921501</v>
       </c>
       <c r="P8">
         <v>25.9268840776354</v>
@@ -1155,34 +1244,34 @@
         <v>2.349576516520512</v>
       </c>
       <c r="R8">
-        <v>184.8989656262179</v>
+        <v>184.89896562621789</v>
       </c>
       <c r="S8">
-        <v>10.48113019927533</v>
+        <v>10.481130199275331</v>
       </c>
       <c r="T8">
-        <v>10.48113019927533</v>
+        <v>10.481130199275331</v>
       </c>
       <c r="U8">
         <v>2.349576516520512</v>
       </c>
       <c r="V8">
-        <v>184.8989656262179</v>
+        <v>184.89896562621789</v>
       </c>
       <c r="W8">
-        <v>280.0937481341433</v>
+        <v>280.09374813414331</v>
       </c>
       <c r="X8">
-        <v>525.9099117357229</v>
+        <v>525.90991173572286</v>
       </c>
       <c r="Y8">
-        <v>280.0937481341433</v>
+        <v>280.09374813414331</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1205,7 +1294,7 @@
         <v>234.5249700383749</v>
       </c>
       <c r="H9">
-        <v>53.66188769368962</v>
+        <v>53.661887693689621</v>
       </c>
       <c r="I9">
         <v>180.8630823446853</v>
@@ -1229,40 +1318,40 @@
         <v>234.5249700383749</v>
       </c>
       <c r="P9">
-        <v>53.66188769368962</v>
+        <v>53.661887693689621</v>
       </c>
       <c r="Q9">
-        <v>1.474859041092171</v>
+        <v>1.4748590410921709</v>
       </c>
       <c r="R9">
-        <v>101.7193621175744</v>
+        <v>101.71936211757441</v>
       </c>
       <c r="S9">
-        <v>4.370419679924042</v>
+        <v>4.3704196799240416</v>
       </c>
       <c r="T9">
-        <v>4.370419679924042</v>
+        <v>4.3704196799240416</v>
       </c>
       <c r="U9">
-        <v>1.474859041092171</v>
+        <v>1.4748590410921709</v>
       </c>
       <c r="V9">
-        <v>101.7193621175744</v>
+        <v>101.71936211757441</v>
       </c>
       <c r="W9">
-        <v>357.6494529967466</v>
+        <v>357.64945299674662</v>
       </c>
       <c r="X9">
-        <v>538.5125353414319</v>
+        <v>538.51253534143189</v>
       </c>
       <c r="Y9">
-        <v>357.6494529967466</v>
+        <v>357.64945299674662</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,10 +1371,10 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>246.3321919146987</v>
+        <v>246.33219191469871</v>
       </c>
       <c r="H10">
-        <v>39.82505628392656</v>
+        <v>39.825056283926557</v>
       </c>
       <c r="I10">
         <v>206.5071356307721</v>
@@ -1306,43 +1395,43 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>246.3321919146987</v>
+        <v>246.33219191469871</v>
       </c>
       <c r="P10">
-        <v>39.82505628392656</v>
+        <v>39.825056283926557</v>
       </c>
       <c r="Q10">
-        <v>1.822184729558462</v>
+        <v>1.8221847295584619</v>
       </c>
       <c r="R10">
-        <v>133.9385262163949</v>
+        <v>133.93852621639491</v>
       </c>
       <c r="S10">
-        <v>6.185357031475651</v>
+        <v>6.1853570314756512</v>
       </c>
       <c r="T10">
-        <v>6.185357031475651</v>
+        <v>6.1853570314756512</v>
       </c>
       <c r="U10">
-        <v>1.822184729558462</v>
+        <v>1.8221847295584619</v>
       </c>
       <c r="V10">
-        <v>133.9385262163949</v>
+        <v>133.93852621639491</v>
       </c>
       <c r="W10">
-        <v>327.0481837470616</v>
+        <v>327.04818374706161</v>
       </c>
       <c r="X10">
-        <v>533.5553193778337</v>
+        <v>533.55531937783371</v>
       </c>
       <c r="Y10">
-        <v>327.0481837470616</v>
+        <v>327.04818374706161</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1365,16 +1454,16 @@
         <v>250.740036324805</v>
       </c>
       <c r="H11">
-        <v>34.91750398298787</v>
+        <v>34.917503982987867</v>
       </c>
       <c r="I11">
-        <v>215.8225323418171</v>
+        <v>215.82253234181709</v>
       </c>
       <c r="J11">
         <v>0.1</v>
       </c>
       <c r="K11">
-        <v>215.8225323418171</v>
+        <v>215.82253234181709</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1383,19 +1472,19 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O11">
         <v>250.740036324805</v>
       </c>
       <c r="P11">
-        <v>34.91750398298787</v>
+        <v>34.917503982987867</v>
       </c>
       <c r="Q11">
         <v>1.97142844029196</v>
       </c>
       <c r="R11">
-        <v>146.985171925747</v>
+        <v>146.98517192574701</v>
       </c>
       <c r="S11">
         <v>7.180926690721301</v>
@@ -1407,22 +1496,22 @@
         <v>1.97142844029196</v>
       </c>
       <c r="V11">
-        <v>146.985171925747</v>
+        <v>146.98517192574701</v>
       </c>
       <c r="W11">
-        <v>333.9036131756816</v>
+        <v>333.90361317568158</v>
       </c>
       <c r="X11">
-        <v>549.7261455174987</v>
+        <v>549.72614551749871</v>
       </c>
       <c r="Y11">
-        <v>333.9036131756816</v>
+        <v>333.90361317568158</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>220.7449590799793</v>
+        <v>220.74495907997931</v>
       </c>
       <c r="H12">
-        <v>44.21226516059056</v>
+        <v>44.212265160590562</v>
       </c>
       <c r="I12">
-        <v>176.5326939193888</v>
+        <v>176.53269391938881</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>176.5326939193888</v>
+        <v>176.53269391938881</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1466,43 +1555,43 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>220.7449590799793</v>
+        <v>220.74495907997931</v>
       </c>
       <c r="P12">
-        <v>44.21226516059056</v>
+        <v>44.212265160590562</v>
       </c>
       <c r="Q12">
-        <v>1.608005760887722</v>
+        <v>1.6080057608877221</v>
       </c>
       <c r="R12">
         <v>105.4391168392636</v>
       </c>
       <c r="S12">
-        <v>4.99284436746626</v>
+        <v>4.9928443674662599</v>
       </c>
       <c r="T12">
-        <v>4.99284436746626</v>
+        <v>4.9928443674662599</v>
       </c>
       <c r="U12">
-        <v>1.608005760887722</v>
+        <v>1.6080057608877221</v>
       </c>
       <c r="V12">
         <v>105.4391168392636</v>
       </c>
       <c r="W12">
-        <v>334.4901649779654</v>
+        <v>334.49016497796538</v>
       </c>
       <c r="X12">
-        <v>511.0228588973541</v>
+        <v>511.02285889735413</v>
       </c>
       <c r="Y12">
-        <v>334.4901649779654</v>
+        <v>334.49016497796538</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1525,16 +1614,16 @@
         <v>281.0444485730477</v>
       </c>
       <c r="H13">
-        <v>22.07458385618751</v>
+        <v>22.074583856187509</v>
       </c>
       <c r="I13">
-        <v>258.9698647168602</v>
+        <v>258.96986471686017</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>262.8143150909896</v>
+        <v>262.81431509098962</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1543,37 +1632,37 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.9853719902099001</v>
+        <v>0.98537199020990007</v>
       </c>
       <c r="O13">
-        <v>334.6860897915695</v>
+        <v>334.68608979156949</v>
       </c>
       <c r="P13">
-        <v>71.87177470057996</v>
+        <v>71.871774700579962</v>
       </c>
       <c r="Q13">
-        <v>1.538309422745678</v>
+        <v>1.5383094227456779</v>
       </c>
       <c r="R13">
-        <v>152.2532868396329</v>
+        <v>152.25328683963289</v>
       </c>
       <c r="S13">
-        <v>4.65671108283999</v>
+        <v>4.6567110828399896</v>
       </c>
       <c r="T13">
-        <v>12.73158535644471</v>
+        <v>12.731585356444709</v>
       </c>
       <c r="U13">
-        <v>2.544085941849371</v>
+        <v>2.5440859418493709</v>
       </c>
       <c r="V13">
-        <v>202.8102262561584</v>
+        <v>202.81022625615839</v>
       </c>
       <c r="W13">
-        <v>313.8607016039303</v>
+        <v>313.86070160393029</v>
       </c>
       <c r="X13">
-        <v>572.8305663207905</v>
+        <v>572.83056632079047</v>
       </c>
       <c r="Y13">
         <v>310.0162512298009</v>
@@ -1582,7 +1671,7 @@
         <v>1.012400802728499</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>246.6460399241792</v>
+        <v>246.64603992417921</v>
       </c>
       <c r="H14">
-        <v>51.02738625833838</v>
+        <v>51.027386258338382</v>
       </c>
       <c r="I14">
-        <v>195.6186536658408</v>
+        <v>195.61865366584081</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>195.6186536658408</v>
+        <v>195.61865366584081</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1626,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>246.6460399241792</v>
+        <v>246.64603992417921</v>
       </c>
       <c r="P14">
-        <v>51.02738625833838</v>
+        <v>51.027386258338382</v>
       </c>
       <c r="Q14">
         <v>1.575591798047751</v>
@@ -1638,10 +1727,10 @@
         <v>115.2203224013883</v>
       </c>
       <c r="S14">
-        <v>4.833601287659032</v>
+        <v>4.8336012876590324</v>
       </c>
       <c r="T14">
-        <v>4.833601287659032</v>
+        <v>4.8336012876590324</v>
       </c>
       <c r="U14">
         <v>1.575591798047751</v>
@@ -1650,19 +1739,19 @@
         <v>115.2203224013883</v>
       </c>
       <c r="W14">
-        <v>308.7552990895852</v>
+        <v>308.75529908958521</v>
       </c>
       <c r="X14">
-        <v>504.373952755426</v>
+        <v>504.37395275542599</v>
       </c>
       <c r="Y14">
-        <v>308.7552990895852</v>
+        <v>308.75529908958521</v>
       </c>
       <c r="Z14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,10 +1771,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>270.58170258979</v>
+        <v>270.58170258978998</v>
       </c>
       <c r="H15">
-        <v>44.22761344093895</v>
+        <v>44.227613440938953</v>
       </c>
       <c r="I15">
         <v>226.3540891488511</v>
@@ -1706,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>270.58170258979</v>
+        <v>270.58170258978998</v>
       </c>
       <c r="P15">
-        <v>44.22761344093895</v>
+        <v>44.227613440938953</v>
       </c>
       <c r="Q15">
         <v>1.811224763027995</v>
@@ -1718,10 +1807,10 @@
         <v>146.2479404749927</v>
       </c>
       <c r="S15">
-        <v>6.117935867173158</v>
+        <v>6.1179358671731583</v>
       </c>
       <c r="T15">
-        <v>6.117935867173158</v>
+        <v>6.1179358671731583</v>
       </c>
       <c r="U15">
         <v>1.811224763027995</v>
@@ -1730,19 +1819,19 @@
         <v>146.2479404749927</v>
       </c>
       <c r="W15">
-        <v>303.571193534157</v>
+        <v>303.57119353415698</v>
       </c>
       <c r="X15">
-        <v>529.9252826830082</v>
+        <v>529.92528268300816</v>
       </c>
       <c r="Y15">
-        <v>303.5711935341571</v>
+        <v>303.57119353415709</v>
       </c>
       <c r="Z15">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1768,7 +1857,7 @@
         <v>30.12617029505304</v>
       </c>
       <c r="I16">
-        <v>227.9214404371259</v>
+        <v>227.92144043712591</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -1792,37 +1881,37 @@
         <v>30.12617029505304</v>
       </c>
       <c r="Q16">
-        <v>2.147749866593428</v>
+        <v>2.1477498665934278</v>
       </c>
       <c r="R16">
         <v>163.2179622049548</v>
       </c>
       <c r="S16">
-        <v>8.565563037215931</v>
+        <v>8.5655630372159308</v>
       </c>
       <c r="T16">
-        <v>8.565563037215931</v>
+        <v>8.5655630372159308</v>
       </c>
       <c r="U16">
-        <v>2.147749866593428</v>
+        <v>2.1477498665934278</v>
       </c>
       <c r="V16">
         <v>163.2179622049548</v>
       </c>
       <c r="W16">
-        <v>282.7258442110621</v>
+        <v>282.72584421106211</v>
       </c>
       <c r="X16">
-        <v>510.6472846481879</v>
+        <v>510.64728464818791</v>
       </c>
       <c r="Y16">
-        <v>282.7258442110621</v>
+        <v>282.72584421106211</v>
       </c>
       <c r="Z16">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1845,7 +1934,7 @@
         <v>279.6506718572644</v>
       </c>
       <c r="H17">
-        <v>27.68214101021263</v>
+        <v>27.682141010212629</v>
       </c>
       <c r="I17">
         <v>251.9685308470518</v>
@@ -1854,7 +1943,7 @@
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>251.9685308470517</v>
+        <v>251.96853084705171</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1869,40 +1958,40 @@
         <v>279.6506718572644</v>
       </c>
       <c r="P17">
-        <v>27.68214101021263</v>
+        <v>27.682141010212629</v>
       </c>
       <c r="Q17">
-        <v>2.312753747364991</v>
+        <v>2.3127537473649911</v>
       </c>
       <c r="R17">
-        <v>187.9465554905964</v>
+        <v>187.94655549059641</v>
       </c>
       <c r="S17">
-        <v>10.10220530825612</v>
+        <v>10.102205308256121</v>
       </c>
       <c r="T17">
-        <v>10.10220530825612</v>
+        <v>10.102205308256121</v>
       </c>
       <c r="U17">
-        <v>2.312753747364991</v>
+        <v>2.3127537473649911</v>
       </c>
       <c r="V17">
-        <v>187.9465554905964</v>
+        <v>187.94655549059641</v>
       </c>
       <c r="W17">
-        <v>256.6507148634336</v>
+        <v>256.65071486343362</v>
       </c>
       <c r="X17">
         <v>508.6192457104853</v>
       </c>
       <c r="Y17">
-        <v>256.6507148634336</v>
+        <v>256.65071486343362</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +2011,19 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>256.5739943439725</v>
+        <v>256.57399434397252</v>
       </c>
       <c r="H18">
-        <v>54.20044368402914</v>
+        <v>54.200443684029139</v>
       </c>
       <c r="I18">
-        <v>202.3735506599434</v>
+        <v>202.37355065994339</v>
       </c>
       <c r="J18">
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>202.3735506599434</v>
+        <v>202.37355065994339</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1943,46 +2032,46 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O18">
-        <v>256.5739943439725</v>
+        <v>256.57399434397252</v>
       </c>
       <c r="P18">
-        <v>54.20044368402914</v>
+        <v>54.200443684029139</v>
       </c>
       <c r="Q18">
-        <v>1.554728005519601</v>
+        <v>1.5547280055196011</v>
       </c>
       <c r="R18">
         <v>118.1066029527953</v>
       </c>
       <c r="S18">
-        <v>4.733798782897701</v>
+        <v>4.7337987828977006</v>
       </c>
       <c r="T18">
-        <v>4.733798782897701</v>
+        <v>4.7337987828977006</v>
       </c>
       <c r="U18">
-        <v>1.554728005519601</v>
+        <v>1.5547280055196011</v>
       </c>
       <c r="V18">
         <v>118.1066029527953</v>
       </c>
       <c r="W18">
-        <v>310.3378346296353</v>
+        <v>310.33783462963532</v>
       </c>
       <c r="X18">
-        <v>512.7113852895786</v>
+        <v>512.71138528957863</v>
       </c>
       <c r="Y18">
-        <v>310.3378346296353</v>
+        <v>310.33783462963532</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2091,19 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>311.6478797008155</v>
+        <v>311.64787970081551</v>
       </c>
       <c r="H19">
-        <v>71.02999171935932</v>
+        <v>71.029991719359316</v>
       </c>
       <c r="I19">
-        <v>240.6178879814561</v>
+        <v>240.61788798145611</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>240.6178879814562</v>
+        <v>240.61788798145619</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2023,19 +2112,19 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O19">
-        <v>311.6478797008155</v>
+        <v>311.64787970081551</v>
       </c>
       <c r="P19">
-        <v>71.02999171935932</v>
+        <v>71.029991719359316</v>
       </c>
       <c r="Q19">
-        <v>1.478771753338678</v>
+        <v>1.4787717533386779</v>
       </c>
       <c r="R19">
-        <v>135.5807425869874</v>
+        <v>135.58074258698741</v>
       </c>
       <c r="S19">
         <v>4.387553372273242</v>
@@ -2044,25 +2133,25 @@
         <v>4.387553372273242</v>
       </c>
       <c r="U19">
-        <v>1.478771753338678</v>
+        <v>1.4787717533386779</v>
       </c>
       <c r="V19">
-        <v>135.5807425869874</v>
+        <v>135.58074258698741</v>
       </c>
       <c r="W19">
-        <v>318.9024475255163</v>
+        <v>318.90244752551632</v>
       </c>
       <c r="X19">
         <v>559.5203355069724</v>
       </c>
       <c r="Y19">
-        <v>318.9024475255162</v>
+        <v>318.90244752551621</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,13 +2171,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>287.0333613553369</v>
+        <v>287.03336135533692</v>
       </c>
       <c r="H20">
-        <v>37.24294389089678</v>
+        <v>37.242943890896782</v>
       </c>
       <c r="I20">
-        <v>249.7904174644401</v>
+        <v>249.79041746444011</v>
       </c>
       <c r="J20">
         <v>0.1</v>
@@ -2103,13 +2192,13 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="O20">
-        <v>287.0333613553369</v>
+        <v>287.03336135533692</v>
       </c>
       <c r="P20">
-        <v>37.24294389089678</v>
+        <v>37.242943890896782</v>
       </c>
       <c r="Q20">
         <v>2.042135949525802</v>
@@ -2118,10 +2207,10 @@
         <v>173.7352628786675</v>
       </c>
       <c r="S20">
-        <v>7.707053507805433</v>
+        <v>7.7070535078054334</v>
       </c>
       <c r="T20">
-        <v>7.707053507805433</v>
+        <v>7.7070535078054334</v>
       </c>
       <c r="U20">
         <v>2.042135949525802</v>
@@ -2130,19 +2219,19 @@
         <v>173.7352628786675</v>
       </c>
       <c r="W20">
-        <v>279.1912510251552</v>
+        <v>279.19125102515522</v>
       </c>
       <c r="X20">
-        <v>528.9816684895953</v>
+        <v>528.98166848959534</v>
       </c>
       <c r="Y20">
-        <v>279.1912510251551</v>
+        <v>279.19125102515511</v>
       </c>
       <c r="Z20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>300.9254421366176</v>
+        <v>300.92544213661762</v>
       </c>
       <c r="H21">
-        <v>77.66441006467498</v>
+        <v>77.664410064674982</v>
       </c>
       <c r="I21">
-        <v>223.2610320719426</v>
+        <v>223.26103207194259</v>
       </c>
       <c r="J21">
         <v>0.1</v>
       </c>
       <c r="K21">
-        <v>223.2610320719426</v>
+        <v>223.26103207194259</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2186,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>300.9254421366176</v>
+        <v>300.92544213661762</v>
       </c>
       <c r="P21">
-        <v>77.66441006467498</v>
+        <v>77.664410064674982</v>
       </c>
       <c r="Q21">
-        <v>1.35446542400901</v>
+        <v>1.3544654240090099</v>
       </c>
       <c r="R21">
         <v>118.067273963283</v>
@@ -2204,25 +2293,25 @@
         <v>3.874689087138139</v>
       </c>
       <c r="U21">
-        <v>1.35446542400901</v>
+        <v>1.3544654240090099</v>
       </c>
       <c r="V21">
         <v>118.067273963283</v>
       </c>
       <c r="W21">
-        <v>276.9675537715307</v>
+        <v>276.96755377153067</v>
       </c>
       <c r="X21">
         <v>500.2285858434733</v>
       </c>
       <c r="Y21">
-        <v>276.9675537715307</v>
+        <v>276.96755377153067</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,19 +2331,19 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>350.7799503801286</v>
+        <v>350.77995038012858</v>
       </c>
       <c r="H22">
-        <v>11.26082310813159</v>
+        <v>11.260823108131589</v>
       </c>
       <c r="I22">
-        <v>339.519127271997</v>
+        <v>339.51912727199698</v>
       </c>
       <c r="J22">
         <v>0.1</v>
       </c>
       <c r="K22">
-        <v>339.5191272719971</v>
+        <v>339.51912727199709</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -2263,46 +2352,46 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="O22">
-        <v>350.7799503801286</v>
+        <v>350.77995038012858</v>
       </c>
       <c r="P22">
-        <v>11.26082310813159</v>
+        <v>11.260823108131589</v>
       </c>
       <c r="Q22">
-        <v>3.438829384645003</v>
+        <v>3.4388293846450031</v>
       </c>
       <c r="R22">
-        <v>300.7950778724647</v>
+        <v>300.79507787246467</v>
       </c>
       <c r="S22">
-        <v>31.15047159623934</v>
+        <v>31.150471596239338</v>
       </c>
       <c r="T22">
-        <v>31.15047159623934</v>
+        <v>31.150471596239338</v>
       </c>
       <c r="U22">
-        <v>3.438829384645003</v>
+        <v>3.4388293846450031</v>
       </c>
       <c r="V22">
-        <v>300.7950778724647</v>
+        <v>300.79507787246467</v>
       </c>
       <c r="W22">
         <v>215.43913205682</v>
       </c>
       <c r="X22">
-        <v>554.958259328817</v>
+        <v>554.95825932881701</v>
       </c>
       <c r="Y22">
-        <v>215.4391320568199</v>
+        <v>215.43913205681989</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,13 +2411,13 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>295.0839953246845</v>
+        <v>295.08399532468451</v>
       </c>
       <c r="H23">
-        <v>28.71822616230916</v>
+        <v>28.718226162309161</v>
       </c>
       <c r="I23">
-        <v>266.3657691623753</v>
+        <v>266.36576916237527</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -2343,22 +2432,22 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9676744183146008</v>
+        <v>0.96767441831460077</v>
       </c>
       <c r="O23">
-        <v>306.2078168977224</v>
+        <v>306.20781689772241</v>
       </c>
       <c r="P23">
-        <v>30.94398422732404</v>
+        <v>30.943984227324041</v>
       </c>
       <c r="Q23">
-        <v>2.292085402075702</v>
+        <v>2.2920854020757022</v>
       </c>
       <c r="R23">
-        <v>204.3375781408882</v>
+        <v>204.33757814088821</v>
       </c>
       <c r="S23">
-        <v>9.895552384212243</v>
+        <v>9.8955523842122428</v>
       </c>
       <c r="T23">
         <v>10.27514699748285</v>
@@ -2373,16 +2462,16 @@
         <v>226.1751819200345</v>
       </c>
       <c r="X23">
-        <v>492.5409510824098</v>
+        <v>492.54095108240978</v>
       </c>
       <c r="Y23">
         <v>217.2771184120115</v>
       </c>
       <c r="Z23">
-        <v>1.040952602708722</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1.0409526027087219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2491,19 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>358.5152654778142</v>
+        <v>358.51526547781418</v>
       </c>
       <c r="H24">
-        <v>17.22226740642064</v>
+        <v>17.222267406420642</v>
       </c>
       <c r="I24">
-        <v>341.2929980713936</v>
+        <v>341.29299807139358</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>341.2929980713936</v>
+        <v>341.29299807139358</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2423,46 +2512,46 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O24">
-        <v>358.5152654778142</v>
+        <v>358.51526547781418</v>
       </c>
       <c r="P24">
-        <v>17.22226740642064</v>
+        <v>17.222267406420642</v>
       </c>
       <c r="Q24">
-        <v>3.035768077482977</v>
+        <v>3.0357680774829769</v>
       </c>
       <c r="R24">
-        <v>289.0101884571063</v>
+        <v>289.01018845710632</v>
       </c>
       <c r="S24">
-        <v>20.81696079949125</v>
+        <v>20.816960799491248</v>
       </c>
       <c r="T24">
-        <v>20.81696079949125</v>
+        <v>20.816960799491248</v>
       </c>
       <c r="U24">
-        <v>3.035768077482977</v>
+        <v>3.0357680774829769</v>
       </c>
       <c r="V24">
-        <v>289.0101884571063</v>
+        <v>289.01018845710632</v>
       </c>
       <c r="W24">
         <v>239.5575519312103</v>
       </c>
       <c r="X24">
-        <v>580.8505500026039</v>
+        <v>580.85055000260388</v>
       </c>
       <c r="Y24">
-        <v>239.5575519312102</v>
+        <v>239.55755193121021</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2571,19 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>316.0010099754927</v>
+        <v>316.00100997549271</v>
       </c>
       <c r="H25">
-        <v>36.37564810305933</v>
+        <v>36.375648103059333</v>
       </c>
       <c r="I25">
-        <v>279.6253618724334</v>
+        <v>279.62536187243342</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>279.6253618724332</v>
+        <v>279.62536187243319</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2506,43 +2595,43 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>316.0010099754927</v>
+        <v>316.00100997549271</v>
       </c>
       <c r="P25">
-        <v>36.37564810305933</v>
+        <v>36.375648103059333</v>
       </c>
       <c r="Q25">
-        <v>2.161845867107615</v>
+        <v>2.1618458671076151</v>
       </c>
       <c r="R25">
         <v>200.9868173574736</v>
       </c>
       <c r="S25">
-        <v>8.687158207606362</v>
+        <v>8.6871582076063625</v>
       </c>
       <c r="T25">
-        <v>8.687158207606362</v>
+        <v>8.6871582076063625</v>
       </c>
       <c r="U25">
-        <v>2.161845867107615</v>
+        <v>2.1618458671076151</v>
       </c>
       <c r="V25">
         <v>200.9868173574736</v>
       </c>
       <c r="W25">
-        <v>262.9156340961985</v>
+        <v>262.91563409619852</v>
       </c>
       <c r="X25">
-        <v>542.5409959686318</v>
+        <v>542.54099596863182</v>
       </c>
       <c r="Y25">
-        <v>262.9156340961986</v>
+        <v>262.91563409619857</v>
       </c>
       <c r="Z25">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,13 +2651,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>316.5322822612443</v>
+        <v>316.53228226124429</v>
       </c>
       <c r="H26">
-        <v>39.33383683334024</v>
+        <v>39.333836833340243</v>
       </c>
       <c r="I26">
-        <v>277.1984454279041</v>
+        <v>277.19844542790412</v>
       </c>
       <c r="J26">
         <v>0.1</v>
@@ -2583,10 +2672,10 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.9465147637104819</v>
+        <v>0.94651476371048193</v>
       </c>
       <c r="O26">
-        <v>323.8552710849078</v>
+        <v>323.85527108490783</v>
       </c>
       <c r="P26">
         <v>30.99301889853508</v>
@@ -2598,19 +2687,19 @@
         <v>220.1360566586921</v>
       </c>
       <c r="S26">
-        <v>10.44929737710111</v>
+        <v>10.449297377101111</v>
       </c>
       <c r="T26">
-        <v>8.047327892328685</v>
+        <v>8.0473278923286848</v>
       </c>
       <c r="U26">
-        <v>2.085340097485423</v>
+        <v>2.0853400974854228</v>
       </c>
       <c r="V26">
-        <v>195.1740182913906</v>
+        <v>195.17401829139061</v>
       </c>
       <c r="W26">
-        <v>278.906770562094</v>
+        <v>278.90677056209398</v>
       </c>
       <c r="X26">
         <v>556.1052159899981</v>
@@ -2622,7 +2711,7 @@
         <v>1.059503230521875</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>327.7493575140708</v>
+        <v>327.74935751407082</v>
       </c>
       <c r="H27">
-        <v>7.439591744972518</v>
+        <v>7.4395917449725184</v>
       </c>
       <c r="I27">
-        <v>320.3097657690983</v>
+        <v>320.30976576909831</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>320.3097657690982</v>
+        <v>320.30976576909819</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2666,43 +2755,43 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>327.7493575140708</v>
+        <v>327.74935751407082</v>
       </c>
       <c r="P27">
-        <v>7.439591744972518</v>
+        <v>7.4395917449725184</v>
       </c>
       <c r="Q27">
-        <v>3.78543318799734</v>
+        <v>3.7854331879973402</v>
       </c>
       <c r="R27">
-        <v>292.1476882725283</v>
+        <v>292.14768827252828</v>
       </c>
       <c r="S27">
-        <v>44.05475041497476</v>
+        <v>44.054750414974762</v>
       </c>
       <c r="T27">
-        <v>44.05475041497476</v>
+        <v>44.054750414974762</v>
       </c>
       <c r="U27">
-        <v>3.78543318799734</v>
+        <v>3.7854331879973402</v>
       </c>
       <c r="V27">
-        <v>292.1476882725283</v>
+        <v>292.14768827252828</v>
       </c>
       <c r="W27">
-        <v>213.3215577533761</v>
+        <v>213.32155775337611</v>
       </c>
       <c r="X27">
-        <v>533.6313235224744</v>
+        <v>533.63132352247442</v>
       </c>
       <c r="Y27">
         <v>213.3215577533762</v>
       </c>
       <c r="Z27">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,10 +2811,10 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>386.3423182221715</v>
+        <v>386.34231822217151</v>
       </c>
       <c r="H28">
-        <v>28.75554845520194</v>
+        <v>28.755548455201939</v>
       </c>
       <c r="I28">
         <v>357.5867697669695</v>
@@ -2746,43 +2835,43 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>386.3423182221715</v>
+        <v>386.34231822217151</v>
       </c>
       <c r="P28">
-        <v>28.75554845520194</v>
+        <v>28.755548455201939</v>
       </c>
       <c r="Q28">
-        <v>2.597893072862287</v>
+        <v>2.5978930728622869</v>
       </c>
       <c r="R28">
-        <v>282.8829296288445</v>
+        <v>282.88292962884452</v>
       </c>
       <c r="S28">
-        <v>13.43540078270638</v>
+        <v>13.435400782706379</v>
       </c>
       <c r="T28">
-        <v>13.43540078270638</v>
+        <v>13.435400782706379</v>
       </c>
       <c r="U28">
-        <v>2.597893072862287</v>
+        <v>2.5978930728622869</v>
       </c>
       <c r="V28">
-        <v>282.8829296288445</v>
+        <v>282.88292962884452</v>
       </c>
       <c r="W28">
-        <v>299.6920799436747</v>
+        <v>299.69207994367468</v>
       </c>
       <c r="X28">
-        <v>657.2788497106442</v>
+        <v>657.27884971064418</v>
       </c>
       <c r="Y28">
-        <v>299.6920799436747</v>
+        <v>299.69207994367468</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,19 +2891,19 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>244.9324652056029</v>
+        <v>244.93246520560291</v>
       </c>
       <c r="H29">
-        <v>8.741336197315889</v>
+        <v>8.7413361973158885</v>
       </c>
       <c r="I29">
-        <v>236.191129008287</v>
+        <v>236.19112900828699</v>
       </c>
       <c r="J29">
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>236.191129008287</v>
+        <v>236.19112900828699</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -2826,34 +2915,34 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>244.9324652056029</v>
+        <v>244.93246520560291</v>
       </c>
       <c r="P29">
-        <v>8.741336197315889</v>
+        <v>8.7413361973158885</v>
       </c>
       <c r="Q29">
-        <v>3.332919459353522</v>
+        <v>3.3329194593535219</v>
       </c>
       <c r="R29">
-        <v>207.0569594955016</v>
+        <v>207.05695949550159</v>
       </c>
       <c r="S29">
-        <v>28.02002573483123</v>
+        <v>28.020025734831229</v>
       </c>
       <c r="T29">
-        <v>28.02002573483123</v>
+        <v>28.020025734831229</v>
       </c>
       <c r="U29">
-        <v>3.332919459353522</v>
+        <v>3.3329194593535219</v>
       </c>
       <c r="V29">
-        <v>207.0569594955016</v>
+        <v>207.05695949550159</v>
       </c>
       <c r="W29">
         <v>225.7461782170983</v>
       </c>
       <c r="X29">
-        <v>461.9373072253853</v>
+        <v>461.93730722538533</v>
       </c>
       <c r="Y29">
         <v>225.7461782170983</v>
@@ -2862,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,19 +2971,19 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>336.2713272834573</v>
+        <v>336.27132728345731</v>
       </c>
       <c r="H30">
-        <v>48.50515023868789</v>
+        <v>48.505150238687889</v>
       </c>
       <c r="I30">
-        <v>287.7661770447694</v>
+        <v>287.76617704476939</v>
       </c>
       <c r="J30">
         <v>0.1</v>
       </c>
       <c r="K30">
-        <v>287.7661770447694</v>
+        <v>287.76617704476939</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -2906,43 +2995,43 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>336.2713272834573</v>
+        <v>336.27132728345731</v>
       </c>
       <c r="P30">
-        <v>48.50515023868789</v>
+        <v>48.505150238687889</v>
       </c>
       <c r="Q30">
-        <v>1.936248372975914</v>
+        <v>1.9362483729759139</v>
       </c>
       <c r="R30">
         <v>193.8481588141577</v>
       </c>
       <c r="S30">
-        <v>6.932693242443481</v>
+        <v>6.9326932424434808</v>
       </c>
       <c r="T30">
-        <v>6.932693242443481</v>
+        <v>6.9326932424434808</v>
       </c>
       <c r="U30">
-        <v>1.936248372975914</v>
+        <v>1.9362483729759139</v>
       </c>
       <c r="V30">
         <v>193.8481588141577</v>
       </c>
       <c r="W30">
-        <v>256.8358273231722</v>
+        <v>256.83582732317223</v>
       </c>
       <c r="X30">
-        <v>544.6020043679416</v>
+        <v>544.60200436794162</v>
       </c>
       <c r="Y30">
-        <v>256.8358273231722</v>
+        <v>256.83582732317223</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,10 +3051,10 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>361.2764375039665</v>
+        <v>361.27643750396652</v>
       </c>
       <c r="H31">
-        <v>25.14353907074164</v>
+        <v>25.143539070741639</v>
       </c>
       <c r="I31">
         <v>336.1328984332248</v>
@@ -2986,16 +3075,16 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>361.2764375039665</v>
+        <v>361.27643750396652</v>
       </c>
       <c r="P31">
-        <v>25.14353907074164</v>
+        <v>25.143539070741639</v>
       </c>
       <c r="Q31">
         <v>2.665042452404041</v>
       </c>
       <c r="R31">
-        <v>269.1242994060187</v>
+        <v>269.12429940601868</v>
       </c>
       <c r="S31">
         <v>14.3685595129433</v>
@@ -3007,13 +3096,13 @@
         <v>2.665042452404041</v>
       </c>
       <c r="V31">
-        <v>269.1242994060187</v>
+        <v>269.12429940601868</v>
       </c>
       <c r="W31">
         <v>194.5863878643664</v>
       </c>
       <c r="X31">
-        <v>530.7192862975912</v>
+        <v>530.71928629759122</v>
       </c>
       <c r="Y31">
         <v>194.5863878643664</v>
@@ -3022,7 +3111,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.10000000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.9966520390744994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.0037618878653032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.94651476371048193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.059503230521875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>